--- a/published-data/fonds-solidarite/fds-2022-06-01/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-01/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19273</v>
+        <v>19274</v>
       </c>
       <c r="D35" t="n">
         <v>3801</v>
       </c>
       <c r="E35" t="n">
-        <v>61929679</v>
+        <v>61939679</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151135</v>
+        <v>151137</v>
       </c>
       <c r="D91" t="n">
         <v>24834</v>
       </c>
       <c r="E91" t="n">
-        <v>482412562</v>
+        <v>482422118</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409110</v>
+        <v>409117</v>
       </c>
       <c r="D92" t="n">
         <v>70906</v>
       </c>
       <c r="E92" t="n">
-        <v>1595152277</v>
+        <v>1595230363</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209571</v>
+        <v>209581</v>
       </c>
       <c r="D93" t="n">
         <v>34261</v>
       </c>
       <c r="E93" t="n">
-        <v>1308864467</v>
+        <v>1308919641</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50759</v>
+        <v>50766</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>932280796</v>
+        <v>932507917</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17272</v>
+        <v>17277</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>792757550</v>
+        <v>793121202</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135239</v>
+        <v>135240</v>
       </c>
       <c r="D104" t="n">
         <v>23286</v>
       </c>
       <c r="E104" t="n">
-        <v>272198155</v>
+        <v>272208155</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5289,13 +5289,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D119" t="n">
         <v>56</v>
       </c>
       <c r="E119" t="n">
-        <v>9916195</v>
+        <v>10119042</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -6355,13 +6355,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>11831</v>
+        <v>11832</v>
       </c>
       <c r="D145" t="n">
         <v>1969</v>
       </c>
       <c r="E145" t="n">
-        <v>182701622</v>
+        <v>182727133</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>34184</v>
+        <v>34185</v>
       </c>
       <c r="D164" t="n">
         <v>6500</v>
       </c>
       <c r="E164" t="n">
-        <v>117605582</v>
+        <v>117606827</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7913,13 +7913,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D183" t="n">
         <v>6</v>
       </c>
       <c r="E183" t="n">
-        <v>5444716</v>
+        <v>5661204</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
